--- a/my_java/src/main/resources/baiduInterface_v2.xlsx
+++ b/my_java/src/main/resources/baiduInterface_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZZZZZZ\auto_test\my_java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D72037-6B07-4A27-A85B-0863A796F571}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A528D80-B17C-49EC-B7D0-E922464736A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="1848" windowWidth="17268" windowHeight="8988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1848" windowWidth="17268" windowHeight="8988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InterfaceInfo" sheetId="1" r:id="rId1"/>
@@ -638,7 +638,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -708,5 +708,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/my_java/src/main/resources/baiduInterface_v2.xlsx
+++ b/my_java/src/main/resources/baiduInterface_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZZZZZZ\auto_test\my_java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A528D80-B17C-49EC-B7D0-E922464736A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BF7D2-225D-4655-9119-AF01400F8078}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1848" windowWidth="17268" windowHeight="8988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InterfaceInfo" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>ApiId(接口编号)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,17 @@
   <si>
     <t>{"data_type":"data_type", "district_id":"222405", "ak":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpectedResponseData(期望数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualResponseData(实际数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":210,"message":"APP IP校验失败"}</t>
   </si>
 </sst>
 </file>
@@ -490,16 +501,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="52.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,21 +646,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A992565D-B468-4CED-8A81-A7A8AC3430B8}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="53.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="53.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -662,8 +675,14 @@
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -676,8 +695,14 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -690,8 +715,14 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -703,6 +734,12 @@
       </c>
       <c r="D4" t="s">
         <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
